--- a/assets/templates/excel/guru/guru.xlsx
+++ b/assets/templates/excel/guru/guru.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>jl. Sekeloa timur no.61</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>tanggal lahir</t>
+  </si>
+  <si>
+    <t>09-04-2002</t>
+  </si>
+  <si>
+    <t>09-04-2003</t>
+  </si>
+  <si>
+    <t>09-04-2004</t>
+  </si>
+  <si>
+    <t>09-04-2005</t>
+  </si>
+  <si>
+    <t>09-04-2006</t>
+  </si>
+  <si>
+    <t>09-04-2007</t>
+  </si>
+  <si>
+    <t>09-04-2008</t>
   </si>
 </sst>
 </file>
@@ -178,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,18 +505,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +557,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,8 +598,14 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -589,8 +639,14 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -624,8 +680,14 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -659,8 +721,14 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -694,8 +762,14 @@
       <c r="K6" t="s">
         <v>33</v>
       </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -729,8 +803,14 @@
       <c r="K7" t="s">
         <v>37</v>
       </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -763,6 +843,12 @@
       </c>
       <c r="K8" t="s">
         <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
